--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.0356107223297</v>
+        <v>59.25485233333333</v>
       </c>
       <c r="H2">
-        <v>59.0356107223297</v>
+        <v>177.764557</v>
       </c>
       <c r="I2">
-        <v>0.2841891268630372</v>
+        <v>0.2826627756245408</v>
       </c>
       <c r="J2">
-        <v>0.2841891268630372</v>
+        <v>0.2826627756245408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>58.434756626801</v>
+        <v>1.106217</v>
       </c>
       <c r="N2">
-        <v>58.434756626801</v>
+        <v>3.318651</v>
       </c>
       <c r="O2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q2">
-        <v>3449.7315448739</v>
+        <v>65.548724983623</v>
       </c>
       <c r="R2">
-        <v>3449.7315448739</v>
+        <v>589.938524852607</v>
       </c>
       <c r="S2">
-        <v>0.2819793490007636</v>
+        <v>0.005125062315651954</v>
       </c>
       <c r="T2">
-        <v>0.2819793490007636</v>
+        <v>0.005125062315651954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.0356107223297</v>
+        <v>59.25485233333333</v>
       </c>
       <c r="H3">
-        <v>59.0356107223297</v>
+        <v>177.764557</v>
       </c>
       <c r="I3">
-        <v>0.2841891268630372</v>
+        <v>0.2826627756245408</v>
       </c>
       <c r="J3">
-        <v>0.2841891268630372</v>
+        <v>0.2826627756245408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.457933646697285</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N3">
-        <v>0.457933646697285</v>
+        <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q3">
-        <v>27.03439250307778</v>
+        <v>3510.542744589034</v>
       </c>
       <c r="R3">
-        <v>27.03439250307778</v>
+        <v>31594.88470130131</v>
       </c>
       <c r="S3">
-        <v>0.002209777862273527</v>
+        <v>0.2744790281164703</v>
       </c>
       <c r="T3">
-        <v>0.002209777862273527</v>
+        <v>0.2744790281164703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.4699192698653</v>
+        <v>59.25485233333333</v>
       </c>
       <c r="H4">
-        <v>26.4699192698653</v>
+        <v>177.764557</v>
       </c>
       <c r="I4">
-        <v>0.1274224684626291</v>
+        <v>0.2826627756245408</v>
       </c>
       <c r="J4">
-        <v>0.1274224684626291</v>
+        <v>0.2826627756245408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.434756626801</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N4">
-        <v>58.434756626801</v>
+        <v>1.980602</v>
       </c>
       <c r="O4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q4">
-        <v>1546.763290465649</v>
+        <v>39.12009301370156</v>
       </c>
       <c r="R4">
-        <v>1546.763290465649</v>
+        <v>352.080837123314</v>
       </c>
       <c r="S4">
-        <v>0.1264316657775542</v>
+        <v>0.003058685192418513</v>
       </c>
       <c r="T4">
-        <v>0.1264316657775542</v>
+        <v>0.003058685192418513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.4699192698653</v>
+        <v>26.49803233333333</v>
       </c>
       <c r="H5">
-        <v>26.4699192698653</v>
+        <v>79.494097</v>
       </c>
       <c r="I5">
-        <v>0.1274224684626291</v>
+        <v>0.1264032745503171</v>
       </c>
       <c r="J5">
-        <v>0.1274224684626291</v>
+        <v>0.1264032745503171</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.457933646697285</v>
+        <v>1.106217</v>
       </c>
       <c r="N5">
-        <v>0.457933646697285</v>
+        <v>3.318651</v>
       </c>
       <c r="O5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q5">
-        <v>12.12146665903215</v>
+        <v>29.312573833683</v>
       </c>
       <c r="R5">
-        <v>12.12146665903215</v>
+        <v>263.813164503147</v>
       </c>
       <c r="S5">
-        <v>0.0009908026850748146</v>
+        <v>0.002291864068558284</v>
       </c>
       <c r="T5">
-        <v>0.0009908026850748146</v>
+        <v>0.002291864068558284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.9298613422131</v>
+        <v>26.49803233333333</v>
       </c>
       <c r="H6">
-        <v>55.9298613422131</v>
+        <v>79.494097</v>
       </c>
       <c r="I6">
-        <v>0.2692384861600536</v>
+        <v>0.1264032745503171</v>
       </c>
       <c r="J6">
-        <v>0.2692384861600536</v>
+        <v>0.1264032745503171</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.434756626801</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N6">
-        <v>58.434756626801</v>
+        <v>177.734444</v>
       </c>
       <c r="O6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q6">
-        <v>3268.247835702948</v>
+        <v>1569.871014619674</v>
       </c>
       <c r="R6">
-        <v>3268.247835702948</v>
+        <v>14128.83913157707</v>
       </c>
       <c r="S6">
-        <v>0.267144960440207</v>
+        <v>0.1227436045395507</v>
       </c>
       <c r="T6">
-        <v>0.267144960440207</v>
+        <v>0.1227436045395507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.9298613422131</v>
+        <v>26.49803233333333</v>
       </c>
       <c r="H7">
-        <v>55.9298613422131</v>
+        <v>79.494097</v>
       </c>
       <c r="I7">
-        <v>0.2692384861600536</v>
+        <v>0.1264032745503171</v>
       </c>
       <c r="J7">
-        <v>0.2692384861600536</v>
+        <v>0.1264032745503171</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.457933646697285</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N7">
-        <v>0.457933646697285</v>
+        <v>1.980602</v>
       </c>
       <c r="O7">
-        <v>0.00777572979890435</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P7">
-        <v>0.00777572979890435</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q7">
-        <v>25.61216536371315</v>
+        <v>17.49401861182155</v>
       </c>
       <c r="R7">
-        <v>25.61216536371315</v>
+        <v>157.446167506394</v>
       </c>
       <c r="S7">
-        <v>0.002093525719846625</v>
+        <v>0.001367805942208046</v>
       </c>
       <c r="T7">
-        <v>0.002093525719846625</v>
+        <v>0.001367805942208046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.8121514210321</v>
+        <v>56.189477</v>
       </c>
       <c r="H8">
-        <v>54.8121514210321</v>
+        <v>168.568431</v>
       </c>
       <c r="I8">
-        <v>0.263857987801519</v>
+        <v>0.2680400491147057</v>
       </c>
       <c r="J8">
-        <v>0.263857987801519</v>
+        <v>0.2680400491147057</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>58.434756626801</v>
+        <v>1.106217</v>
       </c>
       <c r="N8">
-        <v>58.434756626801</v>
+        <v>3.318651</v>
       </c>
       <c r="O8">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P8">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q8">
-        <v>3202.934728479375</v>
+        <v>62.15775467850901</v>
       </c>
       <c r="R8">
-        <v>3202.934728479375</v>
+        <v>559.419792106581</v>
       </c>
       <c r="S8">
-        <v>0.2618062993830917</v>
+        <v>0.004859932305440824</v>
       </c>
       <c r="T8">
-        <v>0.2618062993830917</v>
+        <v>0.004859932305440824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.8121514210321</v>
+        <v>56.189477</v>
       </c>
       <c r="H9">
-        <v>54.8121514210321</v>
+        <v>168.568431</v>
       </c>
       <c r="I9">
-        <v>0.263857987801519</v>
+        <v>0.2680400491147057</v>
       </c>
       <c r="J9">
-        <v>0.263857987801519</v>
+        <v>0.2680400491147057</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.457933646697285</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N9">
-        <v>0.457933646697285</v>
+        <v>177.734444</v>
       </c>
       <c r="O9">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P9">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q9">
-        <v>25.100328383557</v>
+        <v>3328.935151081929</v>
       </c>
       <c r="R9">
-        <v>25.100328383557</v>
+        <v>29960.41635973736</v>
       </c>
       <c r="S9">
-        <v>0.002051688418427212</v>
+        <v>0.2602796636902051</v>
       </c>
       <c r="T9">
-        <v>0.002051688418427212</v>
+        <v>0.2602796636902051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.4859879886177</v>
+        <v>56.189477</v>
       </c>
       <c r="H10">
-        <v>11.4859879886177</v>
+        <v>168.568431</v>
       </c>
       <c r="I10">
-        <v>0.05529193071276121</v>
+        <v>0.2680400491147057</v>
       </c>
       <c r="J10">
-        <v>0.05529193071276121</v>
+        <v>0.2680400491147057</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.434756626801</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N10">
-        <v>58.434756626801</v>
+        <v>1.980602</v>
       </c>
       <c r="O10">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P10">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q10">
-        <v>671.1809127332348</v>
+        <v>37.09633017505134</v>
       </c>
       <c r="R10">
-        <v>671.1809127332348</v>
+        <v>333.866971575462</v>
       </c>
       <c r="S10">
-        <v>0.05486199559947903</v>
+        <v>0.002900453119059735</v>
       </c>
       <c r="T10">
-        <v>0.05486199559947903</v>
+        <v>0.002900453119059735</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>54.99878833333333</v>
+      </c>
+      <c r="H11">
+        <v>164.996365</v>
+      </c>
+      <c r="I11">
+        <v>0.2623601199583325</v>
+      </c>
+      <c r="J11">
+        <v>0.2623601199583325</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.106217</v>
+      </c>
+      <c r="N11">
+        <v>3.318651</v>
+      </c>
+      <c r="O11">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P11">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q11">
+        <v>60.84059463373499</v>
+      </c>
+      <c r="R11">
+        <v>547.565351703615</v>
+      </c>
+      <c r="S11">
+        <v>0.004756947429520807</v>
+      </c>
+      <c r="T11">
+        <v>0.004756947429520807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>54.99878833333333</v>
+      </c>
+      <c r="H12">
+        <v>164.996365</v>
+      </c>
+      <c r="I12">
+        <v>0.2623601199583325</v>
+      </c>
+      <c r="J12">
+        <v>0.2623601199583325</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N12">
+        <v>177.734444</v>
+      </c>
+      <c r="O12">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P12">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q12">
+        <v>3258.393021699562</v>
+      </c>
+      <c r="R12">
+        <v>29325.53719529606</v>
+      </c>
+      <c r="S12">
+        <v>0.2547641817482796</v>
+      </c>
+      <c r="T12">
+        <v>0.2547641817482796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>11.4859879886177</v>
-      </c>
-      <c r="H11">
-        <v>11.4859879886177</v>
-      </c>
-      <c r="I11">
-        <v>0.05529193071276121</v>
-      </c>
-      <c r="J11">
-        <v>0.05529193071276121</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.457933646697285</v>
-      </c>
-      <c r="N11">
-        <v>0.457933646697285</v>
-      </c>
-      <c r="O11">
-        <v>0.00777572979890435</v>
-      </c>
-      <c r="P11">
-        <v>0.00777572979890435</v>
-      </c>
-      <c r="Q11">
-        <v>5.259820365548917</v>
-      </c>
-      <c r="R11">
-        <v>5.259820365548917</v>
-      </c>
-      <c r="S11">
-        <v>0.0004299351132821719</v>
-      </c>
-      <c r="T11">
-        <v>0.0004299351132821719</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>54.99878833333333</v>
+      </c>
+      <c r="H13">
+        <v>164.996365</v>
+      </c>
+      <c r="I13">
+        <v>0.2623601199583325</v>
+      </c>
+      <c r="J13">
+        <v>0.2623601199583325</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.980602</v>
+      </c>
+      <c r="O13">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P13">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q13">
+        <v>36.31023672352556</v>
+      </c>
+      <c r="R13">
+        <v>326.79213051173</v>
+      </c>
+      <c r="S13">
+        <v>0.002838990780532141</v>
+      </c>
+      <c r="T13">
+        <v>0.002838990780532141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.689751</v>
+      </c>
+      <c r="H14">
+        <v>38.069253</v>
+      </c>
+      <c r="I14">
+        <v>0.06053378075210392</v>
+      </c>
+      <c r="J14">
+        <v>0.06053378075210392</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.106217</v>
+      </c>
+      <c r="N14">
+        <v>3.318651</v>
+      </c>
+      <c r="O14">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P14">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q14">
+        <v>14.037618281967</v>
+      </c>
+      <c r="R14">
+        <v>126.338564537703</v>
+      </c>
+      <c r="S14">
+        <v>0.001097560150504693</v>
+      </c>
+      <c r="T14">
+        <v>0.001097560150504693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.689751</v>
+      </c>
+      <c r="H15">
+        <v>38.069253</v>
+      </c>
+      <c r="I15">
+        <v>0.06053378075210392</v>
+      </c>
+      <c r="J15">
+        <v>0.06053378075210392</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N15">
+        <v>177.734444</v>
+      </c>
+      <c r="O15">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P15">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q15">
+        <v>751.8019461611481</v>
+      </c>
+      <c r="R15">
+        <v>6766.217515450332</v>
+      </c>
+      <c r="S15">
+        <v>0.05878118642379327</v>
+      </c>
+      <c r="T15">
+        <v>0.05878118642379327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.689751</v>
+      </c>
+      <c r="H16">
+        <v>38.069253</v>
+      </c>
+      <c r="I16">
+        <v>0.06053378075210392</v>
+      </c>
+      <c r="J16">
+        <v>0.06053378075210392</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.980602</v>
+      </c>
+      <c r="O16">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P16">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q16">
+        <v>8.377782070034</v>
+      </c>
+      <c r="R16">
+        <v>75.400038630306</v>
+      </c>
+      <c r="S16">
+        <v>0.0006550341778059508</v>
+      </c>
+      <c r="T16">
+        <v>0.0006550341778059508</v>
       </c>
     </row>
   </sheetData>
